--- a/doc/report_signatures.xlsx
+++ b/doc/report_signatures.xlsx
@@ -234,7 +234,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,14 +319,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,7 +399,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -442,8 +434,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0244212533771256"/>
-          <c:y val="0.0308828465928164"/>
+          <c:x val="0.0244225471498199"/>
+          <c:y val="0.0308854385228703"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -769,11 +761,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="39141491"/>
-        <c:axId val="8950410"/>
+        <c:axId val="99439945"/>
+        <c:axId val="13838632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39141491"/>
+        <c:axId val="99439945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,14 +796,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8950410"/>
+        <c:crossAx val="13838632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8950410"/>
+        <c:axId val="13838632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -852,7 +844,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39141491"/>
+        <c:crossAx val="99439945"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
@@ -903,7 +895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -938,8 +930,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0244212533771256"/>
-          <c:y val="0.0308828465928164"/>
+          <c:x val="0.0244225471498199"/>
+          <c:y val="0.0308854385228703"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1164,11 +1156,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="56092402"/>
-        <c:axId val="38682314"/>
+        <c:axId val="24996463"/>
+        <c:axId val="50145305"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56092402"/>
+        <c:axId val="24996463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,14 +1191,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38682314"/>
+        <c:crossAx val="50145305"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38682314"/>
+        <c:axId val="50145305"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1213,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1246,9 +1238,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56092402"/>
+        <c:crossAx val="24996463"/>
         <c:crossesAt val="1"/>
-        <c:majorUnit val="300"/>
+        <c:majorUnit val="75"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1308,9 +1300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
+      <xdr:colOff>760680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1319,7 +1311,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8176680" y="0"/>
-        <a:ext cx="6795360" cy="4289400"/>
+        <a:ext cx="6795000" cy="4289040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1338,9 +1330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>760320</xdr:colOff>
+      <xdr:colOff>759960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1349,7 +1341,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8175960" y="4349520"/>
-        <a:ext cx="6795360" cy="4289400"/>
+        <a:ext cx="6795000" cy="4289040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2394,10 +2386,10 @@
       <c r="C5" s="10" t="n">
         <v>0.009736</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="10" t="n">
         <v>255.743517</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="10" t="n">
         <v>0.075375</v>
       </c>
       <c r="F5" s="10" t="n">
@@ -2435,10 +2427,10 @@
       <c r="C6" s="12" t="n">
         <v>0.009955</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="12" t="n">
         <v>255.941522</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="12" t="n">
         <v>0.076678</v>
       </c>
       <c r="F6" s="12" t="n">
@@ -2476,10 +2468,10 @@
       <c r="C7" s="10" t="n">
         <v>0.010147</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="10" t="n">
         <v>203.636073</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="10" t="n">
         <v>0.072875</v>
       </c>
       <c r="F7" s="10" t="n">
@@ -2517,10 +2509,10 @@
       <c r="C8" s="12" t="n">
         <v>0.009569</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="12" t="n">
         <v>180.996611</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="12" t="n">
         <v>0.074979</v>
       </c>
       <c r="F8" s="12" t="n">
@@ -2558,10 +2550,10 @@
       <c r="C9" s="10" t="n">
         <v>0.010164</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="10" t="n">
         <v>195.104082</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="10" t="n">
         <v>0.078984</v>
       </c>
       <c r="F9" s="10" t="n">
@@ -2599,10 +2591,10 @@
       <c r="C10" s="12" t="n">
         <v>0.010213</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="12" t="n">
         <v>270.436485</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="12" t="n">
         <v>0.064201</v>
       </c>
       <c r="F10" s="12" t="n">
@@ -2640,10 +2632,10 @@
       <c r="C11" s="10" t="n">
         <v>0.009915</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="10" t="n">
         <v>212.758276</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="10" t="n">
         <v>0.076019</v>
       </c>
       <c r="F11" s="10" t="n">
@@ -2681,10 +2673,10 @@
       <c r="C12" s="12" t="n">
         <v>0.009855</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="12" t="n">
         <v>251.690863</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="12" t="n">
         <v>0.071987</v>
       </c>
       <c r="F12" s="12" t="n">
@@ -2722,10 +2714,10 @@
       <c r="C13" s="10" t="n">
         <v>0.019245</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="10" t="n">
         <v>211.074533</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E13" s="10" t="n">
         <v>0.074533</v>
       </c>
       <c r="F13" s="10" t="n">
@@ -2763,10 +2755,10 @@
       <c r="C14" s="12" t="n">
         <v>0.011663</v>
       </c>
-      <c r="D14" s="22" t="n">
+      <c r="D14" s="12" t="n">
         <v>280.313854</v>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="12" t="n">
         <v>0.076314</v>
       </c>
       <c r="F14" s="12" t="n">
@@ -2804,10 +2796,10 @@
       <c r="C15" s="10" t="n">
         <v>0.013485</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="10" t="n">
         <v>282.151013</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="10" t="n">
         <v>0.074537</v>
       </c>
       <c r="F15" s="10" t="n">
@@ -2845,10 +2837,10 @@
       <c r="C16" s="12" t="n">
         <v>0.010307</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="12" t="n">
         <v>239.506497</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="12" t="n">
         <v>0.074302</v>
       </c>
       <c r="F16" s="12" t="n">
@@ -2886,10 +2878,10 @@
       <c r="C17" s="10" t="n">
         <v>0.01108</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="10" t="n">
         <v>207.02867</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="10" t="n">
         <v>0.071973</v>
       </c>
       <c r="F17" s="10" t="n">
@@ -2927,10 +2919,10 @@
       <c r="C18" s="12" t="n">
         <v>0.010036</v>
       </c>
-      <c r="D18" s="22" t="n">
+      <c r="D18" s="12" t="n">
         <v>243.981462</v>
       </c>
-      <c r="E18" s="22" t="n">
+      <c r="E18" s="12" t="n">
         <v>0.074866</v>
       </c>
       <c r="F18" s="12" t="n">
@@ -2968,10 +2960,10 @@
       <c r="C19" s="10" t="n">
         <v>0.011181</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="10" t="n">
         <v>277.343932</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="10" t="n">
         <v>0.070973</v>
       </c>
       <c r="F19" s="10" t="n">
@@ -3009,10 +3001,10 @@
       <c r="C20" s="12" t="n">
         <v>0.013487</v>
       </c>
-      <c r="D20" s="22" t="n">
+      <c r="D20" s="12" t="n">
         <v>281.794838</v>
       </c>
-      <c r="E20" s="22" t="n">
+      <c r="E20" s="12" t="n">
         <v>0.076352</v>
       </c>
       <c r="F20" s="12" t="n">
@@ -3050,10 +3042,10 @@
       <c r="C21" s="10" t="n">
         <v>0.011621</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="10" t="n">
         <v>244.398043</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="10" t="n">
         <v>0.071941</v>
       </c>
       <c r="F21" s="10" t="n">
@@ -3091,10 +3083,10 @@
       <c r="C22" s="12" t="n">
         <v>0.010257</v>
       </c>
-      <c r="D22" s="22" t="n">
+      <c r="D22" s="12" t="n">
         <v>263.924798</v>
       </c>
-      <c r="E22" s="22" t="n">
+      <c r="E22" s="12" t="n">
         <v>0.071455</v>
       </c>
       <c r="F22" s="12" t="n">
@@ -3132,10 +3124,10 @@
       <c r="C23" s="10" t="n">
         <v>0.013659</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="10" t="n">
         <v>212.117662</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="10" t="n">
         <v>0.07199</v>
       </c>
       <c r="F23" s="10" t="n">
@@ -3173,10 +3165,10 @@
       <c r="C24" s="12" t="n">
         <v>0.011604</v>
       </c>
-      <c r="D24" s="22" t="n">
+      <c r="D24" s="12" t="n">
         <v>234.813961</v>
       </c>
-      <c r="E24" s="22" t="n">
+      <c r="E24" s="12" t="n">
         <v>0.072609</v>
       </c>
       <c r="F24" s="12" t="n">
@@ -3214,10 +3206,10 @@
       <c r="C25" s="10" t="n">
         <v>0.011179</v>
       </c>
-      <c r="D25" s="21" t="n">
+      <c r="D25" s="10" t="n">
         <v>284.226811</v>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="10" t="n">
         <v>0.072256</v>
       </c>
       <c r="F25" s="10" t="n">
@@ -3255,10 +3247,10 @@
       <c r="C26" s="12" t="n">
         <v>0.011087</v>
       </c>
-      <c r="D26" s="22" t="n">
+      <c r="D26" s="12" t="n">
         <v>247.545331</v>
       </c>
-      <c r="E26" s="22" t="n">
+      <c r="E26" s="12" t="n">
         <v>0.073723</v>
       </c>
       <c r="F26" s="12" t="n">
@@ -3296,10 +3288,10 @@
       <c r="C27" s="10" t="n">
         <v>0.010273</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="10" t="n">
         <v>276.289098</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="10" t="n">
         <v>0.071906</v>
       </c>
       <c r="F27" s="10" t="n">
@@ -3337,10 +3329,10 @@
       <c r="C28" s="12" t="n">
         <v>0.010647</v>
       </c>
-      <c r="D28" s="22" t="n">
+      <c r="D28" s="12" t="n">
         <v>261.650804</v>
       </c>
-      <c r="E28" s="22" t="n">
+      <c r="E28" s="12" t="n">
         <v>0.07185</v>
       </c>
       <c r="F28" s="12" t="n">
@@ -3378,10 +3370,10 @@
       <c r="C29" s="10" t="n">
         <v>0.010553</v>
       </c>
-      <c r="D29" s="21" t="n">
+      <c r="D29" s="10" t="n">
         <v>260.436011</v>
       </c>
-      <c r="E29" s="21" t="n">
+      <c r="E29" s="10" t="n">
         <v>0.077622</v>
       </c>
       <c r="F29" s="10" t="n">
@@ -3419,10 +3411,10 @@
       <c r="C30" s="12" t="n">
         <v>0.011317</v>
       </c>
-      <c r="D30" s="22" t="n">
+      <c r="D30" s="12" t="n">
         <v>214.990821</v>
       </c>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="12" t="n">
         <v>0.071966</v>
       </c>
       <c r="F30" s="12" t="n">
@@ -3460,10 +3452,10 @@
       <c r="C31" s="10" t="n">
         <v>0.01111</v>
       </c>
-      <c r="D31" s="21" t="n">
+      <c r="D31" s="10" t="n">
         <v>213.336698</v>
       </c>
-      <c r="E31" s="21" t="n">
+      <c r="E31" s="10" t="n">
         <v>0.07185</v>
       </c>
       <c r="F31" s="10" t="n">
@@ -3501,10 +3493,10 @@
       <c r="C32" s="12" t="n">
         <v>0.011822</v>
       </c>
-      <c r="D32" s="22" t="n">
+      <c r="D32" s="12" t="n">
         <v>280.524859</v>
       </c>
-      <c r="E32" s="22" t="n">
+      <c r="E32" s="12" t="n">
         <v>0.076344</v>
       </c>
       <c r="F32" s="12" t="n">
@@ -3542,10 +3534,10 @@
       <c r="C33" s="10" t="n">
         <v>0.013265</v>
       </c>
-      <c r="D33" s="21" t="n">
+      <c r="D33" s="10" t="n">
         <v>223.218724</v>
       </c>
-      <c r="E33" s="21" t="n">
+      <c r="E33" s="10" t="n">
         <v>0.072629</v>
       </c>
       <c r="F33" s="10" t="n">
@@ -3583,10 +3575,10 @@
       <c r="C34" s="12" t="n">
         <v>0.021871</v>
       </c>
-      <c r="D34" s="22" t="n">
+      <c r="D34" s="12" t="n">
         <v>248.078392</v>
       </c>
-      <c r="E34" s="22" t="n">
+      <c r="E34" s="12" t="n">
         <v>0.078392</v>
       </c>
       <c r="F34" s="12" t="n">
@@ -3618,51 +3610,51 @@
       <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="23" t="n">
+      <c r="B35" s="21" t="n">
         <f aca="false">MEDIAN(B5:B34)</f>
         <v>40.352169</v>
       </c>
-      <c r="C35" s="23" t="n">
+      <c r="C35" s="21" t="n">
         <f aca="false">MEDIAN(C5:C34)</f>
         <v>0.0110835</v>
       </c>
-      <c r="D35" s="23" t="n">
+      <c r="D35" s="21" t="n">
         <f aca="false">MEDIAN(D5:D34)</f>
         <v>247.8118615</v>
       </c>
-      <c r="E35" s="23" t="n">
+      <c r="E35" s="21" t="n">
         <f aca="false">MEDIAN(E5:E34)</f>
         <v>0.073299</v>
       </c>
-      <c r="F35" s="23" t="n">
+      <c r="F35" s="21" t="n">
         <f aca="false">MEDIAN(F5:F34)</f>
         <v>0.017464</v>
       </c>
-      <c r="G35" s="23" t="n">
+      <c r="G35" s="21" t="n">
         <f aca="false">MEDIAN(G5:G34)</f>
         <v>0.000732</v>
       </c>
-      <c r="H35" s="23" t="n">
+      <c r="H35" s="21" t="n">
         <f aca="false">MEDIAN(H5:H34)</f>
         <v>6.0915755</v>
       </c>
-      <c r="I35" s="23" t="n">
+      <c r="I35" s="21" t="n">
         <f aca="false">MEDIAN(I5:I34)</f>
         <v>0.004191</v>
       </c>
-      <c r="J35" s="23" t="n">
+      <c r="J35" s="21" t="n">
         <f aca="false">MEDIAN(J5:J34)</f>
         <v>2.6520745</v>
       </c>
-      <c r="K35" s="23" t="n">
+      <c r="K35" s="21" t="n">
         <f aca="false">MEDIAN(K5:K34)</f>
         <v>0.150746</v>
       </c>
-      <c r="L35" s="23" t="n">
+      <c r="L35" s="21" t="n">
         <f aca="false">MEDIAN(L5:L34)</f>
         <v>68.8352925</v>
       </c>
-      <c r="M35" s="23" t="n">
+      <c r="M35" s="21" t="n">
         <f aca="false">MEDIAN(M5:M34)</f>
         <v>0.4442225</v>
       </c>
@@ -3676,31 +3668,31 @@
         <v>40.3632525</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="24" t="n">
+      <c r="D36" s="22" t="n">
         <f aca="false">SUM(D35:E35)</f>
         <v>247.8851605</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24" t="n">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="n">
         <f aca="false">SUM(F35:G35)</f>
         <v>0.018196</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24" t="n">
+      <c r="G36" s="22"/>
+      <c r="H36" s="22" t="n">
         <f aca="false">SUM(H35:I35)</f>
         <v>6.0957665</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24" t="n">
+      <c r="I36" s="22"/>
+      <c r="J36" s="22" t="n">
         <f aca="false">SUM(J35:K35)</f>
         <v>2.8028205</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24" t="n">
+      <c r="K36" s="22"/>
+      <c r="L36" s="22" t="n">
         <f aca="false">SUM(L35:M35)</f>
         <v>69.279515</v>
       </c>
-      <c r="M36" s="24"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/doc/report_signatures.xlsx
+++ b/doc/report_signatures.xlsx
@@ -88,7 +88,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,7 +140,7 @@
     <font>
       <b val="true"/>
       <sz val="20"/>
-      <color rgb="FF666666"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -154,11 +154,18 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FF666666"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
@@ -413,7 +420,7 @@
             <a:pPr>
               <a:defRPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
@@ -421,11 +428,11 @@
             <a:r>
               <a:rPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Precisão dos modelos</a:t>
+              <a:t>Precisão</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -434,8 +441,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0244225471498199"/>
-          <c:y val="0.0308854385228703"/>
+          <c:x val="0.0244238410596026"/>
+          <c:y val="0.0308880308880309"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -761,11 +768,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="99439945"/>
-        <c:axId val="13838632"/>
+        <c:axId val="38349602"/>
+        <c:axId val="55825764"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99439945"/>
+        <c:axId val="38349602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,21 +796,21 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13838632"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="55825764"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13838632"/>
+        <c:axId val="55825764"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -837,14 +844,14 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99439945"/>
+        <c:crossAx val="38349602"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
@@ -871,7 +878,7 @@
           <a:pPr>
             <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="666666"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -887,9 +894,7 @@
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
-      <a:solidFill>
-        <a:srgbClr val="666666"/>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -909,7 +914,7 @@
             <a:pPr>
               <a:defRPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
@@ -917,11 +922,11 @@
             <a:r>
               <a:rPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Tempo de execução dos modelos</a:t>
+              <a:t>Tempo de execução</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -930,8 +935,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0244225471498199"/>
-          <c:y val="0.0308854385228703"/>
+          <c:x val="0.0243708609271523"/>
+          <c:y val="0.0308880308880309"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1018,7 +1023,7 @@
                   <a:pPr>
                     <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                       <a:solidFill>
-                        <a:srgbClr val="666666"/>
+                        <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
@@ -1041,7 +1046,7 @@
                   <a:pPr>
                     <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                       <a:solidFill>
-                        <a:srgbClr val="666666"/>
+                        <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
@@ -1064,7 +1069,7 @@
                   <a:pPr>
                     <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                       <a:solidFill>
-                        <a:srgbClr val="666666"/>
+                        <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
@@ -1085,7 +1090,7 @@
                 <a:pPr>
                   <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                     <a:solidFill>
-                      <a:srgbClr val="666666"/>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -1156,11 +1161,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="24996463"/>
-        <c:axId val="50145305"/>
+        <c:axId val="57050523"/>
+        <c:axId val="67273347"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24996463"/>
+        <c:axId val="57050523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,21 +1189,21 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50145305"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="67273347"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50145305"/>
+        <c:axId val="67273347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,14 +1236,14 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24996463"/>
+        <c:crossAx val="57050523"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="75"/>
       </c:valAx>
@@ -1265,7 +1270,7 @@
           <a:pPr>
             <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="666666"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -1281,9 +1286,7 @@
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
-      <a:solidFill>
-        <a:srgbClr val="666666"/>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -1300,9 +1303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>760680</xdr:colOff>
+      <xdr:colOff>760320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1311,7 +1314,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8176680" y="0"/>
-        <a:ext cx="6795000" cy="4289040"/>
+        <a:ext cx="6794640" cy="4288680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1330,9 +1333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>759960</xdr:colOff>
+      <xdr:colOff>759600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>203400</xdr:rowOff>
+      <xdr:rowOff>203040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1341,7 +1344,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8175960" y="4349520"/>
-        <a:ext cx="6795000" cy="4289040"/>
+        <a:ext cx="6794640" cy="4288680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
